--- a/shotgun.xlsx
+++ b/shotgun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack-\Documents\Code\Funny Ammo Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A4CFD40-A0C6-49FA-A9EC-83E298172BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57F5F6D6-71BB-4F37-A1D0-55CDAAE87093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="1020" windowWidth="21600" windowHeight="11385" xr2:uid="{35149B85-6DC0-4867-AFCB-6FEE37D63A05}"/>
   </bookViews>
@@ -51,24 +51,6 @@
     <t>AP-20</t>
   </si>
   <si>
-    <t>5.25mm</t>
-  </si>
-  <si>
-    <t>6.5mm "Express"</t>
-  </si>
-  <si>
-    <t>7mm</t>
-  </si>
-  <si>
-    <t>8.5mm "Magnum"</t>
-  </si>
-  <si>
-    <t>Dual Sabot</t>
-  </si>
-  <si>
-    <t>Flechette</t>
-  </si>
-  <si>
     <t>Custom Lite</t>
   </si>
   <si>
@@ -99,22 +81,40 @@
     <t>20x70mm</t>
   </si>
   <si>
-    <t>5.6mm</t>
-  </si>
-  <si>
-    <t>6.2mm</t>
-  </si>
-  <si>
-    <t>7.3mm</t>
-  </si>
-  <si>
-    <t>7.5mm</t>
-  </si>
-  <si>
     <t>Devastator</t>
   </si>
   <si>
     <t>Star</t>
+  </si>
+  <si>
+    <t>5.6mm x 8</t>
+  </si>
+  <si>
+    <t>6.2mm x 8</t>
+  </si>
+  <si>
+    <t>7.3mm x 9</t>
+  </si>
+  <si>
+    <t>7.5mm x 8</t>
+  </si>
+  <si>
+    <t>Dual Sabot x 2</t>
+  </si>
+  <si>
+    <t>Flechette x 8</t>
+  </si>
+  <si>
+    <t>8.5mm "Magnum" x 8</t>
+  </si>
+  <si>
+    <t>7mm x 8</t>
+  </si>
+  <si>
+    <t>6.5mm "Express" x 9</t>
+  </si>
+  <si>
+    <t>5.25mm x 8</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +537,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -761,10 +761,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>26</v>
@@ -775,10 +775,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>22</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>23</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>25</v>
@@ -817,10 +817,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>198</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>120</v>
@@ -845,10 +845,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>135</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>154</v>
